--- a/wbdata_trade.xlsx
+++ b/wbdata_trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/sergio_castellanos_tec_mx/Documents/2025_2026/1_AD2025/4_Introduction_to_Econometrics/Workshops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{715621B7-DC43-4621-81D8-E23E67F69D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C845ED7-C49D-451B-882D-EFAD9573F153}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{715621B7-DC43-4621-81D8-E23E67F69D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FF0DFA-1E1A-464A-9496-7FA4D2E3ABA2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="412">
   <si>
     <t>Zambia</t>
-  </si>
-  <si>
-    <t>Imports of goods and services (% of GDP) [NE.IMP.GNFS.ZS]</t>
   </si>
   <si>
     <t>Netherlands</t>
@@ -45,9 +42,6 @@
 Gross domestic product is the total income earned through the production of goods and services in an economic territory during an accounting period. It can be measured in three different ways: using either the expenditure approach, the income approach, or the production approach. This series has been linked to produce a consistent time series to counteract breaks in series over time due to changes in base years, source data and methodologies. Thus, it may not be comparable with other national accounts series in the database for historical years. The core indicator has been divided by the general population to achieve a per capita estimate. This indicator is expressed in current prices, meaning no adjustment has been made to account for price changes over time. The PPP conversion factor is a currency conversion factor and a spatial price deflator. PPPs convert different currencies to a common currency and, in the process of conversion, equalize their purchasing power by eliminating the differences in price levels between countries, thereby allowing volume or output comparisons of GDP and its expenditure components.</t>
   </si>
   <si>
-    <t>Time Code</t>
-  </si>
-  <si>
     <t>QAT</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
   </si>
   <si>
     <t>SYC</t>
-  </si>
-  <si>
-    <t>GDP (current US$) [NY.GDP.MKTP.CD]</t>
   </si>
   <si>
     <t>Environment: Density &amp; urbanization</t>
@@ -271,9 +262,6 @@
     <t>UGA</t>
   </si>
   <si>
-    <t>License Type</t>
-  </si>
-  <si>
     <t>GNB</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>CC BY-4.0</t>
-  </si>
-  <si>
     <t>Weighted mean applied tariff is the average of effectively applied rates weighted by the product import shares corresponding to each partner country. Data are classified using the Harmonized System of trade at the six- or eight-digit level. Tariff line data were matched to Standard International Trade Classification (SITC) revision 3 codes to define commodity groups and import weights. To the extent possible, specific rates have been converted to their ad valorem equivalent rates and have been included in the calculation of weighted mean tariffs. Import weights were calculated using the United Nations Statistics Division's Commodity Trade (Comtrade) database. Effectively applied tariff rates at the six- and eight-digit product level are averaged for products in each commodity group. When the effectively applied rate is unavailable, the most favored nation rate is used instead.</t>
   </si>
   <si>
@@ -334,18 +319,12 @@
     <t>MNE</t>
   </si>
   <si>
-    <t>GDP per capita, PPP (current international $) [NY.GDP.PCAP.PP.CD]</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
     <t>Gross domestic product is the total income earned through the production of goods and services in an economic territory during an accounting period. It can be measured in three different ways: using either the expenditure approach, the income approach, or the production approach. This indicator is expressed in constant prices, meaning the series has been adjusted to account for price changes over time. The reference year for this adjustment is 2015. This indicator is expressed in United States dollars.</t>
   </si>
   <si>
-    <t>Exports of goods and services (% of GDP) [NE.EXP.GNFS.ZS]</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -371,9 +350,6 @@
   </si>
   <si>
     <t>General comments</t>
-  </si>
-  <si>
-    <t>GDP per capita (current US$) [NY.GDP.PCAP.CD]</t>
   </si>
   <si>
     <t>Economic Policy &amp; Debt: National accounts: Shares of GDP &amp; other</t>
@@ -514,13 +490,7 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>Tariff rate, applied, simple mean, all products (%) [TM.TAX.MRCH.SM.AR.ZS]</t>
-  </si>
-  <si>
     <t>Other notes</t>
-  </si>
-  <si>
-    <t>Tariff rate, applied, weighted mean, all products (%) [TM.TAX.MRCH.WM.AR.ZS]</t>
   </si>
   <si>
     <t>Belize</t>
@@ -759,12 +729,6 @@
     <t>Tariff rate, applied, simple mean, all products (%)</t>
   </si>
   <si>
-    <t>Trade (% of GDP) [NE.TRD.GNFS.ZS]</t>
-  </si>
-  <si>
-    <t>Population density (people per sq. km of land area) [EN.POP.DNST]</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -809,9 +773,6 @@
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>GDP (constant 2015 US$) [NY.GDP.MKTP.KD]</t>
-  </si>
-  <si>
     <t>MNG</t>
   </si>
   <si>
@@ -822,9 +783,6 @@
   </si>
   <si>
     <t>Israel</t>
-  </si>
-  <si>
-    <t>Country Code</t>
   </si>
   <si>
     <t>DEU</t>
@@ -879,9 +837,6 @@
     <t>KWT</t>
   </si>
   <si>
-    <t>Population, total [SP.POP.TOTL]</t>
-  </si>
-  <si>
     <t>UKR</t>
   </si>
   <si>
@@ -904,9 +859,6 @@
 The quality and reliability of official demographic data are also affected by public trust in the government, government commitment to full and accurate enumeration, confidentiality and protection against misuse of census data, and census agencies' independence from political influence. Moreover, comparability of population indicators is limited by differences in the concepts, definitions, collection procedures, and estimation methods used by national statistical agencies and other organizations that collect the data.</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>AZE</t>
   </si>
   <si>
@@ -1044,9 +996,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>GDP per capita, PPP (constant 2021 international $) [NY.GDP.PCAP.PP.KD]</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -1196,9 +1145,6 @@
   </si>
   <si>
     <t>Greece</t>
-  </si>
-  <si>
-    <t>Individuals using the Internet (% of population) [IT.NET.USER.ZS]</t>
   </si>
   <si>
     <t>Trade (% of GDP)</t>
@@ -1244,13 +1190,7 @@
 Population and Vital Statistics Report (various years), United Nations (UN), uri: https://unstats.un.org, publisher: UN Statistics Division</t>
   </si>
   <si>
-    <t>GDP per capita (constant 2015 US$) [NY.GDP.PCAP.KD]</t>
-  </si>
-  <si>
     <t>current US$</t>
-  </si>
-  <si>
-    <t>Country Name</t>
   </si>
   <si>
     <t>NPL</t>
@@ -1276,9 +1216,6 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Surface area (sq. km) [AG.SRF.TOTL.K2]</t>
-  </si>
-  <si>
     <t>constant 2015 US$</t>
   </si>
   <si>
@@ -1294,12 +1231,6 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Continent</t>
-  </si>
-  <si>
-    <t>WB_Income_Group</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
@@ -1316,22 +1247,80 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time_code</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>iso3c</t>
+  </si>
+  <si>
+    <t>gdp_const</t>
+  </si>
+  <si>
+    <t>gdp_nominal</t>
+  </si>
+  <si>
+    <t>gdppc_const</t>
+  </si>
+  <si>
+    <t>gdppc_nominal</t>
+  </si>
+  <si>
+    <t>gdppc_ppp_const</t>
+  </si>
+  <si>
+    <t>gdppc_ppp_current</t>
+  </si>
+  <si>
+    <t>trade_pct_gdp</t>
+  </si>
+  <si>
+    <t>exports_pct_gdp</t>
+  </si>
+  <si>
+    <t>imports_pct_gdp</t>
+  </si>
+  <si>
+    <t>tariff_simple</t>
+  </si>
+  <si>
+    <t>tariff_weighted</t>
+  </si>
+  <si>
+    <t>internet_users_pct</t>
+  </si>
+  <si>
+    <t>pop_density</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>surface_area</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>wb_income_group</t>
+  </si>
+  <si>
+    <t>var name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1377,7 +1366,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1685,77 +1674,82 @@
   <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
         <v>392</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>393</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="G1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H1" t="s">
-        <v>115</v>
+        <v>397</v>
       </c>
       <c r="I1" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="K1" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="L1" t="s">
-        <v>105</v>
+        <v>401</v>
       </c>
       <c r="M1" t="s">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="N1" t="s">
-        <v>161</v>
+        <v>403</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="P1" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="Q1" t="s">
-        <v>234</v>
+        <v>406</v>
       </c>
       <c r="R1" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="S1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -1763,13 +1757,13 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E2">
         <v>14385329993.534147</v>
@@ -1817,10 +1811,10 @@
         <v>28750</v>
       </c>
       <c r="T2" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -1828,13 +1822,13 @@
         <v>2022</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>206670488126.8317</v>
@@ -1882,10 +1876,10 @@
         <v>2381741</v>
       </c>
       <c r="T3" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -1893,13 +1887,13 @@
         <v>2022</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>84883445838.160355</v>
@@ -1947,10 +1941,10 @@
         <v>1246700</v>
       </c>
       <c r="T4" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -1958,13 +1952,13 @@
         <v>2022</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <v>598603016935.28699</v>
@@ -2012,10 +2006,10 @@
         <v>2780400</v>
       </c>
       <c r="T5" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -2023,13 +2017,13 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E6">
         <v>1587133480804.5327</v>
@@ -2077,10 +2071,10 @@
         <v>7741220</v>
       </c>
       <c r="T6" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="U6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -2088,13 +2082,13 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>427236226728.29803</v>
@@ -2142,10 +2136,10 @@
         <v>83879</v>
       </c>
       <c r="T7" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -2153,13 +2147,13 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E8">
         <v>56789627316.895378</v>
@@ -2207,10 +2201,10 @@
         <v>86600</v>
       </c>
       <c r="T8" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -2218,13 +2212,13 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>12795362392.877781</v>
@@ -2272,10 +2266,10 @@
         <v>13880</v>
       </c>
       <c r="T9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -2283,13 +2277,13 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>38474716945.189056</v>
@@ -2337,10 +2331,10 @@
         <v>790</v>
       </c>
       <c r="T10" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U10" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -2348,13 +2342,13 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>305629528154.31073</v>
@@ -2402,10 +2396,10 @@
         <v>147570</v>
       </c>
       <c r="T11" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -2413,13 +2407,13 @@
         <v>2022</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>520899825783.06097</v>
@@ -2467,10 +2461,10 @@
         <v>30689</v>
       </c>
       <c r="T12" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -2478,13 +2472,13 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E13">
         <v>2524886205.2505965</v>
@@ -2532,10 +2526,10 @@
         <v>22970</v>
       </c>
       <c r="T13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -2543,13 +2537,13 @@
         <v>2022</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E14">
         <v>16765906414.794922</v>
@@ -2597,10 +2591,10 @@
         <v>114760</v>
       </c>
       <c r="T14" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="U14" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
@@ -2608,13 +2602,13 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="E15">
         <v>7099253361.4119902</v>
@@ -2650,7 +2644,7 @@
         <v>29.52</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15">
         <v>1199.0555555555557</v>
@@ -2662,10 +2656,10 @@
         <v>4290</v>
       </c>
       <c r="T15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -2673,13 +2667,13 @@
         <v>2022</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>2615853471.1858721</v>
@@ -2727,10 +2721,10 @@
         <v>38390</v>
       </c>
       <c r="T16" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -2738,13 +2732,13 @@
         <v>2022</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E17">
         <v>38319728337.571381</v>
@@ -2792,10 +2786,10 @@
         <v>1098580</v>
       </c>
       <c r="T17" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U17" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -2803,13 +2797,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E18">
         <v>20276983961.367558</v>
@@ -2857,10 +2851,10 @@
         <v>51210</v>
       </c>
       <c r="T18" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -2868,13 +2862,13 @@
         <v>2022</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>17468616755.562717</v>
@@ -2922,10 +2916,10 @@
         <v>581730</v>
       </c>
       <c r="T19" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -2933,13 +2927,13 @@
         <v>2022</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E20">
         <v>1899505377558.02</v>
@@ -2987,10 +2981,10 @@
         <v>8510417.7709999997</v>
       </c>
       <c r="T20" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -2998,13 +2992,13 @@
         <v>2022</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>13000438059.979092</v>
@@ -3052,10 +3046,10 @@
         <v>5770</v>
       </c>
       <c r="T21" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U21" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
@@ -3063,13 +3057,13 @@
         <v>2022</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>62074193826.548462</v>
@@ -3117,10 +3111,10 @@
         <v>111000</v>
       </c>
       <c r="T22" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
@@ -3128,13 +3122,13 @@
         <v>2022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E23">
         <v>16642350339.793173</v>
@@ -3182,10 +3176,10 @@
         <v>274200</v>
       </c>
       <c r="T23" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U23" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -3193,13 +3187,13 @@
         <v>2022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E24">
         <v>3379450965.7308035</v>
@@ -3247,10 +3241,10 @@
         <v>27830</v>
       </c>
       <c r="T24" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U24" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -3258,13 +3252,13 @@
         <v>2022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E25">
         <v>2077803747.0865779</v>
@@ -3312,10 +3306,10 @@
         <v>4030</v>
       </c>
       <c r="T25" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U25" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -3323,13 +3317,13 @@
         <v>2022</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E26">
         <v>34597385966.820518</v>
@@ -3377,10 +3371,10 @@
         <v>181040</v>
       </c>
       <c r="T26" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U26" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -3388,13 +3382,13 @@
         <v>2022</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>40306867605.136429</v>
@@ -3442,10 +3436,10 @@
         <v>475440</v>
       </c>
       <c r="T27" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U27" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
@@ -3453,13 +3447,13 @@
         <v>2022</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E28">
         <v>1778503389905</v>
@@ -3507,10 +3501,10 @@
         <v>15634410</v>
       </c>
       <c r="T28" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U28" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
@@ -3518,13 +3512,13 @@
         <v>2022</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E29">
         <v>2033686256.5847738</v>
@@ -3560,7 +3554,7 @@
         <v>14.48</v>
       </c>
       <c r="P29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q29">
         <v>8.1833108607017877</v>
@@ -3572,10 +3566,10 @@
         <v>622980</v>
       </c>
       <c r="T29" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U29" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -3583,13 +3577,13 @@
         <v>2022</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E30">
         <v>17255124958.540096</v>
@@ -3637,10 +3631,10 @@
         <v>1284000</v>
       </c>
       <c r="T30" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U30" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -3648,13 +3642,13 @@
         <v>2022</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E31">
         <v>279278925615.69177</v>
@@ -3702,10 +3696,10 @@
         <v>756700</v>
       </c>
       <c r="T31" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
@@ -3713,13 +3707,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <v>16706875253648.482</v>
@@ -3767,10 +3761,10 @@
         <v>9562910</v>
       </c>
       <c r="T32" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
@@ -3778,13 +3772,13 @@
         <v>2022</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E33">
         <v>354752900899.01965</v>
@@ -3832,10 +3826,10 @@
         <v>1140619.05</v>
       </c>
       <c r="T33" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
@@ -3843,13 +3837,13 @@
         <v>2022</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E34">
         <v>67692661917.017738</v>
@@ -3897,10 +3891,10 @@
         <v>322460</v>
       </c>
       <c r="T34" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U34" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
@@ -3908,13 +3902,13 @@
         <v>2022</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E35">
         <v>64066840476.846367</v>
@@ -3962,10 +3956,10 @@
         <v>88070</v>
       </c>
       <c r="T35" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U35" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
@@ -3973,13 +3967,13 @@
         <v>2022</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <v>29176869929.23159</v>
@@ -4027,10 +4021,10 @@
         <v>9250</v>
       </c>
       <c r="T36" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U36" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
@@ -4038,13 +4032,13 @@
         <v>2022</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E37">
         <v>220137498830.72992</v>
@@ -4092,10 +4086,10 @@
         <v>78871.47</v>
       </c>
       <c r="T37" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U37" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -4103,13 +4097,13 @@
         <v>2022</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E38">
         <v>355650135426.45605</v>
@@ -4157,10 +4151,10 @@
         <v>42920</v>
       </c>
       <c r="T38" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U38" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -4168,13 +4162,13 @@
         <v>2022</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E39">
         <v>97686450823.966553</v>
@@ -4222,10 +4216,10 @@
         <v>146839.46300000002</v>
       </c>
       <c r="T39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
@@ -4233,13 +4227,13 @@
         <v>2022</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40">
         <v>108859360917.98628</v>
@@ -4287,10 +4281,10 @@
         <v>256370</v>
       </c>
       <c r="T40" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
@@ -4298,13 +4292,13 @@
         <v>2022</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>27356823619.696564</v>
@@ -4352,10 +4346,10 @@
         <v>21040</v>
       </c>
       <c r="T41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U41" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
@@ -4363,13 +4357,13 @@
         <v>2022</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>9963221065.409668</v>
@@ -4417,10 +4411,10 @@
         <v>28050</v>
       </c>
       <c r="T42" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
@@ -4428,13 +4422,13 @@
         <v>2022</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E43">
         <v>28434428182.572762</v>
@@ -4482,10 +4476,10 @@
         <v>45340</v>
       </c>
       <c r="T43" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U43" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
@@ -4493,13 +4487,13 @@
         <v>2022</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <v>4486130488.6176338</v>
@@ -4547,10 +4541,10 @@
         <v>17360</v>
       </c>
       <c r="T44" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="U44" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
@@ -4558,13 +4552,13 @@
         <v>2022</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>255670602724.75928</v>
@@ -4612,10 +4606,10 @@
         <v>338470</v>
       </c>
       <c r="T45" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U45" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
@@ -4623,13 +4617,13 @@
         <v>2022</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E46">
         <v>2646451030889.7817</v>
@@ -4677,10 +4671,10 @@
         <v>549087.37</v>
       </c>
       <c r="T46" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U46" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
@@ -4688,13 +4682,13 @@
         <v>2022</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E47">
         <v>15866657481.128262</v>
@@ -4742,10 +4736,10 @@
         <v>267670</v>
       </c>
       <c r="T47" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U47" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
@@ -4753,13 +4747,13 @@
         <v>2022</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>1873704900.5382698</v>
@@ -4807,10 +4801,10 @@
         <v>11300</v>
       </c>
       <c r="T48" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U48" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
@@ -4818,13 +4812,13 @@
         <v>2022</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E49">
         <v>21296041913.214424</v>
@@ -4872,10 +4866,10 @@
         <v>69700</v>
       </c>
       <c r="T49" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
@@ -4883,13 +4877,13 @@
         <v>2022</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E50">
         <v>3702230996915.748</v>
@@ -4937,10 +4931,10 @@
         <v>357600</v>
       </c>
       <c r="T50" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U50" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
@@ -4948,13 +4942,13 @@
         <v>2022</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E51">
         <v>68526224001.221672</v>
@@ -5002,10 +4996,10 @@
         <v>238533</v>
       </c>
       <c r="T51" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U51" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
@@ -5013,13 +5007,13 @@
         <v>2022</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E52">
         <v>214952753800.89963</v>
@@ -5067,10 +5061,10 @@
         <v>131960</v>
       </c>
       <c r="T52" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U52" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
@@ -5078,13 +5072,13 @@
         <v>2022</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>78265595990.353058</v>
@@ -5132,10 +5126,10 @@
         <v>108890</v>
       </c>
       <c r="T53" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U53" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
@@ -5143,13 +5137,13 @@
         <v>2022</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E54">
         <v>13879482945.938011</v>
@@ -5197,10 +5191,10 @@
         <v>245860</v>
       </c>
       <c r="T54" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U54" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
@@ -5208,13 +5202,13 @@
         <v>2022</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <v>1580686197.6198585</v>
@@ -5262,10 +5256,10 @@
         <v>36130</v>
       </c>
       <c r="T55" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U55" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
@@ -5273,13 +5267,13 @@
         <v>2022</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <v>25973672631.776558</v>
@@ -5327,10 +5321,10 @@
         <v>112490</v>
       </c>
       <c r="T56" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U56" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
@@ -5338,13 +5332,13 @@
         <v>2022</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E57">
         <v>317951853968.25293</v>
@@ -5383,19 +5377,19 @@
         <v>95.6</v>
       </c>
       <c r="Q57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R57">
         <v>7346100</v>
       </c>
       <c r="S57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T57" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U57" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
@@ -5403,13 +5397,13 @@
         <v>2022</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="E58">
         <v>158545886039.55411</v>
@@ -5457,10 +5451,10 @@
         <v>93030</v>
       </c>
       <c r="T58" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U58" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
@@ -5468,13 +5462,13 @@
         <v>2022</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E59">
         <v>22081592142.812439</v>
@@ -5522,10 +5516,10 @@
         <v>103000</v>
       </c>
       <c r="T59" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U59" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
@@ -5533,13 +5527,13 @@
         <v>2022</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E60">
         <v>2990839011962.4609</v>
@@ -5587,10 +5581,10 @@
         <v>3287260</v>
       </c>
       <c r="T60" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U60" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
@@ -5598,13 +5592,13 @@
         <v>2022</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E61">
         <v>1122268412650.2021</v>
@@ -5652,10 +5646,10 @@
         <v>1916906.77</v>
       </c>
       <c r="T61" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
@@ -5663,13 +5657,13 @@
         <v>2022</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>514903922090.30566</v>
@@ -5717,10 +5711,10 @@
         <v>70280</v>
       </c>
       <c r="T62" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U62" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
@@ -5728,13 +5722,13 @@
         <v>2022</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E63">
         <v>406350386042.27911</v>
@@ -5773,19 +5767,19 @@
         <v>91.9</v>
       </c>
       <c r="Q63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R63">
         <v>9557500</v>
       </c>
       <c r="S63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T63" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U63" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
@@ -5793,13 +5787,13 @@
         <v>2022</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E64">
         <v>2000084512919.5566</v>
@@ -5847,10 +5841,10 @@
         <v>302070</v>
       </c>
       <c r="T64" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
@@ -5858,13 +5852,13 @@
         <v>2022</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E65">
         <v>4534320578755.8477</v>
@@ -5912,10 +5906,10 @@
         <v>377969.27</v>
       </c>
       <c r="T65" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U65" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
@@ -5923,13 +5917,13 @@
         <v>2022</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E66">
         <v>44009762839.501633</v>
@@ -5977,10 +5971,10 @@
         <v>89318</v>
       </c>
       <c r="T66" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
@@ -5988,13 +5982,13 @@
         <v>2022</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E67">
         <v>221549683201.09851</v>
@@ -6042,10 +6036,10 @@
         <v>2724902</v>
       </c>
       <c r="T67" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
@@ -6053,13 +6047,13 @@
         <v>2022</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E68">
         <v>94807911027.625</v>
@@ -6095,7 +6089,7 @@
         <v>11.7</v>
       </c>
       <c r="P68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q68">
         <v>95.323577678602803</v>
@@ -6107,10 +6101,10 @@
         <v>580370</v>
       </c>
       <c r="T68" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U68" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
@@ -6118,13 +6112,13 @@
         <v>2022</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E69">
         <v>1740868427277.0076</v>
@@ -6172,10 +6166,10 @@
         <v>100440</v>
       </c>
       <c r="T69" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U69" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
@@ -6183,13 +6177,13 @@
         <v>2022</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E70">
         <v>121991940846.71709</v>
@@ -6237,10 +6231,10 @@
         <v>17820</v>
       </c>
       <c r="T70" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U70" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.35">
@@ -6248,13 +6242,13 @@
         <v>2022</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E71">
         <v>30831235007.8675</v>
@@ -6302,10 +6296,10 @@
         <v>64590</v>
       </c>
       <c r="T71" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U71" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
@@ -6313,13 +6307,13 @@
         <v>2022</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E72">
         <v>2211855514.8791666</v>
@@ -6367,10 +6361,10 @@
         <v>30360</v>
       </c>
       <c r="T72" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U72" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.35">
@@ -6378,13 +6372,13 @@
         <v>2022</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E73">
         <v>53474129886.970551</v>
@@ -6432,10 +6426,10 @@
         <v>65286</v>
       </c>
       <c r="T73" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U73" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
@@ -6443,13 +6437,13 @@
         <v>2022</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E74">
         <v>23110764976.518177</v>
@@ -6488,19 +6482,19 @@
         <v>88</v>
       </c>
       <c r="Q74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R74">
         <v>677300</v>
       </c>
       <c r="S74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T74" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U74" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
@@ -6508,13 +6502,13 @@
         <v>2022</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>13347233960.443813</v>
@@ -6562,10 +6556,10 @@
         <v>587295</v>
       </c>
       <c r="T75" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U75" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
@@ -6573,13 +6567,13 @@
         <v>2022</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E76">
         <v>387694727478.77728</v>
@@ -6627,10 +6621,10 @@
         <v>330411</v>
       </c>
       <c r="T76" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
@@ -6638,13 +6632,13 @@
         <v>2022</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E77">
         <v>5733717713.57584</v>
@@ -6692,10 +6686,10 @@
         <v>300</v>
       </c>
       <c r="T77" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U77" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.35">
@@ -6703,13 +6697,13 @@
         <v>2022</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E78">
         <v>20215515808.518387</v>
@@ -6757,10 +6751,10 @@
         <v>1240190</v>
       </c>
       <c r="T78" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U78" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
@@ -6768,13 +6762,13 @@
         <v>2022</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E79">
         <v>16984786096.093273</v>
@@ -6822,10 +6816,10 @@
         <v>320</v>
       </c>
       <c r="T79" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U79" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
@@ -6833,13 +6827,13 @@
         <v>2022</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E80">
         <v>7687691068.956831</v>
@@ -6887,10 +6881,10 @@
         <v>1030700</v>
       </c>
       <c r="T80" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U80" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
@@ -6898,13 +6892,13 @@
         <v>2022</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E81">
         <v>13322509534.08515</v>
@@ -6952,10 +6946,10 @@
         <v>2010</v>
       </c>
       <c r="T81" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
@@ -6963,13 +6957,13 @@
         <v>2022</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E82">
         <v>1287850323410.0095</v>
@@ -7017,10 +7011,10 @@
         <v>1964375</v>
       </c>
       <c r="T82" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U82" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
@@ -7028,13 +7022,13 @@
         <v>2022</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E83">
         <v>9133384074.9720345</v>
@@ -7082,10 +7076,10 @@
         <v>33850</v>
       </c>
       <c r="T83" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
@@ -7093,13 +7087,13 @@
         <v>2022</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E84">
         <v>14441951078.837976</v>
@@ -7147,10 +7141,10 @@
         <v>1564115.75</v>
       </c>
       <c r="T84" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U84" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
@@ -7158,13 +7152,13 @@
         <v>2022</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E85">
         <v>4869340027.2423382</v>
@@ -7212,10 +7206,10 @@
         <v>13810</v>
       </c>
       <c r="T85" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U85" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
@@ -7223,13 +7217,13 @@
         <v>2022</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E86">
         <v>11285723330.952015</v>
@@ -7277,10 +7271,10 @@
         <v>824290</v>
       </c>
       <c r="T86" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U86" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
@@ -7288,13 +7282,13 @@
         <v>2022</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="E87">
         <v>33089761144.510345</v>
@@ -7342,10 +7336,10 @@
         <v>147180</v>
       </c>
       <c r="T87" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U87" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
@@ -7353,13 +7347,13 @@
         <v>2022</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E88">
         <v>916513359459.67114</v>
@@ -7407,10 +7401,10 @@
         <v>41540</v>
       </c>
       <c r="T88" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U88" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
@@ -7418,13 +7412,13 @@
         <v>2022</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E89">
         <v>218336637842.86349</v>
@@ -7472,10 +7466,10 @@
         <v>267710</v>
       </c>
       <c r="T89" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="U89" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
@@ -7483,13 +7477,13 @@
         <v>2022</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E90">
         <v>14644146345.718866</v>
@@ -7537,10 +7531,10 @@
         <v>130370</v>
       </c>
       <c r="T90" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U90" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
@@ -7548,13 +7542,13 @@
         <v>2022</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" t="s">
         <v>86</v>
       </c>
-      <c r="C91" t="s">
-        <v>91</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E91">
         <v>14346774735.502621</v>
@@ -7602,10 +7596,10 @@
         <v>1267000</v>
       </c>
       <c r="T91" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U91" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
@@ -7613,13 +7607,13 @@
         <v>2022</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="E92">
         <v>11449348867.205442</v>
@@ -7667,10 +7661,10 @@
         <v>25710</v>
       </c>
       <c r="T92" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U92" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
@@ -7678,13 +7672,13 @@
         <v>2022</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E93">
         <v>434497344228.60675</v>
@@ -7732,10 +7726,10 @@
         <v>624500</v>
       </c>
       <c r="T93" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U93" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
@@ -7743,13 +7737,13 @@
         <v>2022</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E94">
         <v>88892516940.198502</v>
@@ -7797,10 +7791,10 @@
         <v>309500</v>
       </c>
       <c r="T94" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U94" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
@@ -7808,13 +7802,13 @@
         <v>2022</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E95">
         <v>400224894618.85724</v>
@@ -7862,10 +7856,10 @@
         <v>796100</v>
       </c>
       <c r="T95" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U95" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
@@ -7873,13 +7867,13 @@
         <v>2022</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E96">
         <v>70048985344.861084</v>
@@ -7927,10 +7921,10 @@
         <v>75320</v>
       </c>
       <c r="T96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U96" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.35">
@@ -7938,13 +7932,13 @@
         <v>2022</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E97">
         <v>42037903094.744873</v>
@@ -7992,10 +7986,10 @@
         <v>406752</v>
       </c>
       <c r="T97" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U97" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.35">
@@ -8003,13 +7997,13 @@
         <v>2022</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E98">
         <v>223198050485.25089</v>
@@ -8057,10 +8051,10 @@
         <v>1285220</v>
       </c>
       <c r="T98" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U98" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.35">
@@ -8068,13 +8062,13 @@
         <v>2022</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E99">
         <v>407730367707.39337</v>
@@ -8122,10 +8116,10 @@
         <v>300000</v>
       </c>
       <c r="T99" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U99" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.35">
@@ -8133,13 +8127,13 @@
         <v>2022</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>637150470884.73291</v>
@@ -8187,10 +8181,10 @@
         <v>312720</v>
       </c>
       <c r="T100" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U100" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.35">
@@ -8198,13 +8192,13 @@
         <v>2022</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E101">
         <v>230002605108.70703</v>
@@ -8252,10 +8246,10 @@
         <v>92230</v>
       </c>
       <c r="T101" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U101" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.35">
@@ -8263,13 +8257,13 @@
         <v>2022</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E102">
         <v>170908036353.71024</v>
@@ -8317,10 +8311,10 @@
         <v>11490</v>
       </c>
       <c r="T102" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U102" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.35">
@@ -8328,13 +8322,13 @@
         <v>2022</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E103">
         <v>230770154206.92834</v>
@@ -8382,10 +8376,10 @@
         <v>238400</v>
       </c>
       <c r="T103" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U103" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.35">
@@ -8393,13 +8387,13 @@
         <v>2022</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E104">
         <v>12946823701.930687</v>
@@ -8447,10 +8441,10 @@
         <v>26340</v>
       </c>
       <c r="T104" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U104" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.35">
@@ -8458,13 +8452,13 @@
         <v>2022</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E105">
         <v>859301066620.78772</v>
@@ -8512,10 +8506,10 @@
         <v>2149690</v>
       </c>
       <c r="T105" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U105" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.35">
@@ -8523,13 +8517,13 @@
         <v>2022</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E106">
         <v>25297546478.504177</v>
@@ -8577,10 +8571,10 @@
         <v>196710</v>
       </c>
       <c r="T106" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U106" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.35">
@@ -8588,13 +8582,13 @@
         <v>2022</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E107">
         <v>1902424765.1768961</v>
@@ -8642,10 +8636,10 @@
         <v>460</v>
       </c>
       <c r="T107" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U107" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.35">
@@ -8653,13 +8647,13 @@
         <v>2022</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C108" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E108">
         <v>8914856495.1050797</v>
@@ -8707,10 +8701,10 @@
         <v>72300</v>
       </c>
       <c r="T108" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U108" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.35">
@@ -8718,13 +8712,13 @@
         <v>2022</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E109">
         <v>384550906479.00623</v>
@@ -8772,10 +8766,10 @@
         <v>728</v>
       </c>
       <c r="T109" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U109" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.35">
@@ -8783,13 +8777,13 @@
         <v>2022</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E110">
         <v>102944982587.62164</v>
@@ -8837,10 +8831,10 @@
         <v>49030</v>
       </c>
       <c r="T110" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U110" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.35">
@@ -8848,13 +8842,13 @@
         <v>2022</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E111">
         <v>53386809690.27179</v>
@@ -8902,10 +8896,10 @@
         <v>20480</v>
       </c>
       <c r="T111" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U111" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.35">
@@ -8913,13 +8907,13 @@
         <v>2022</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E112">
         <v>1509636294.9660254</v>
@@ -8967,10 +8961,10 @@
         <v>28900</v>
       </c>
       <c r="T112" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="U112" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.35">
@@ -8978,13 +8972,13 @@
         <v>2022</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E113">
         <v>360788046853.64099</v>
@@ -9032,10 +9026,10 @@
         <v>1219090</v>
       </c>
       <c r="T113" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U113" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.35">
@@ -9043,13 +9037,13 @@
         <v>2022</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E114">
         <v>1345296618859.6665</v>
@@ -9097,10 +9091,10 @@
         <v>505978.28100000002</v>
       </c>
       <c r="T114" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U114" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.35">
@@ -9108,13 +9102,13 @@
         <v>2022</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E115">
         <v>575505409859.55579</v>
@@ -9162,10 +9156,10 @@
         <v>528860</v>
       </c>
       <c r="T115" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U115" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.35">
@@ -9173,13 +9167,13 @@
         <v>2022</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E116">
         <v>795248228754.84045</v>
@@ -9227,10 +9221,10 @@
         <v>41290.699999999997</v>
       </c>
       <c r="T116" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U116" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.35">
@@ -9238,13 +9232,13 @@
         <v>2022</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E117">
         <v>67159014151.451004</v>
@@ -9292,10 +9286,10 @@
         <v>947300</v>
       </c>
       <c r="T117" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U117" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.35">
@@ -9303,13 +9297,13 @@
         <v>2022</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E118">
         <v>450410744554.85718</v>
@@ -9357,10 +9351,10 @@
         <v>513120</v>
       </c>
       <c r="T118" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U118" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.35">
@@ -9368,13 +9362,13 @@
         <v>2022</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E119">
         <v>7842296104.315074</v>
@@ -9422,10 +9416,10 @@
         <v>56790</v>
       </c>
       <c r="T119" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U119" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.35">
@@ -9433,13 +9427,13 @@
         <v>2022</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C120" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E120">
         <v>482629585.75729042</v>
@@ -9487,10 +9481,10 @@
         <v>750</v>
       </c>
       <c r="T120" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="U120" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.35">
@@ -9498,13 +9492,13 @@
         <v>2022</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E121">
         <v>1194401442556.9524</v>
@@ -9552,10 +9546,10 @@
         <v>785350</v>
       </c>
       <c r="T121" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U121" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.35">
@@ -9563,13 +9557,13 @@
         <v>2022</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E122">
         <v>44147216889.623978</v>
@@ -9617,10 +9611,10 @@
         <v>241550</v>
       </c>
       <c r="T122" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U122" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.35">
@@ -9628,13 +9622,13 @@
         <v>2022</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E123">
         <v>72309415409.673843</v>
@@ -9682,10 +9676,10 @@
         <v>603550</v>
       </c>
       <c r="T123" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U123" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.35">
@@ -9693,13 +9687,13 @@
         <v>2022</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E124">
         <v>3223545410805.6211</v>
@@ -9747,10 +9741,10 @@
         <v>243610</v>
       </c>
       <c r="T124" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="U124" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.35">
@@ -9758,13 +9752,13 @@
         <v>2022</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E125">
         <v>21443388432051.027</v>
@@ -9812,10 +9806,10 @@
         <v>9831510</v>
       </c>
       <c r="T125" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U125" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.35">
@@ -9823,13 +9817,13 @@
         <v>2022</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="E126">
         <v>61810768801.320923</v>
@@ -9877,10 +9871,10 @@
         <v>176220</v>
       </c>
       <c r="T126" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="U126" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.35">
@@ -9888,13 +9882,13 @@
         <v>2022</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E127">
         <v>857832270.18191183</v>
@@ -9942,10 +9936,10 @@
         <v>12190</v>
       </c>
       <c r="T127" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="U127" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.35">
@@ -9953,13 +9947,13 @@
         <v>2022</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C128" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E128">
         <v>360611028837.66394</v>
@@ -10007,10 +10001,10 @@
         <v>331340</v>
       </c>
       <c r="T128" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U128" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.35">
@@ -10018,13 +10012,13 @@
         <v>2022</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E129">
         <v>26175604214.189548</v>
@@ -10072,10 +10066,10 @@
         <v>752610</v>
       </c>
       <c r="T129" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="U129" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.35">
@@ -10092,14 +10086,14 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -10109,10 +10103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10123,697 +10117,707 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="M1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="I2" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="J2">
         <v>2015</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="N3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="J4">
         <v>2015</v>
       </c>
       <c r="K4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I5" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K5" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="I6" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="J6">
         <v>2021</v>
       </c>
       <c r="K6" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="I7" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K7" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K8" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K9" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L9" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="Q9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>402</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K10" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L10" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="Q10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q11" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
         <v>367</v>
       </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
-        <v>385</v>
-      </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>405</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K13" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" t="s">
         <v>216</v>
       </c>
-      <c r="O13" t="s">
-        <v>226</v>
-      </c>
       <c r="Q13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I14" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K14" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="N14" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="Q14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>407</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F15" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="I16" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="M16" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="N16" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q16" t="s">
-        <v>198</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/wbdata_trade.xlsx
+++ b/wbdata_trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/sergio_castellanos_tec_mx/Documents/2025_2026/1_AD2025/4_Introduction_to_Econometrics/Workshops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{715621B7-DC43-4621-81D8-E23E67F69D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FF0DFA-1E1A-464A-9496-7FA4D2E3ABA2}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{715621B7-DC43-4621-81D8-E23E67F69D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32EA1B32-C37B-4194-A270-D51860C38FB1}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="411">
   <si>
     <t>Zambia</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Poland</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>CMR</t>
@@ -1366,7 +1363,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1673,11 +1670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="I62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:U1"/>
+      <selection pane="bottomRight" activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1689,67 +1686,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>391</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>393</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>394</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>395</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>396</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>397</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>398</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>399</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>400</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>401</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>402</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>403</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>404</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>405</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>406</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>407</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -1757,13 +1754,13 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2">
         <v>14385329993.534147</v>
@@ -1811,10 +1808,10 @@
         <v>28750</v>
       </c>
       <c r="T2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -1822,10 +1819,10 @@
         <v>2022</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1876,10 +1873,10 @@
         <v>2381741</v>
       </c>
       <c r="T3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -1887,10 +1884,10 @@
         <v>2022</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1941,10 +1938,10 @@
         <v>1246700</v>
       </c>
       <c r="T4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -1952,13 +1949,13 @@
         <v>2022</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5">
         <v>598603016935.28699</v>
@@ -2006,10 +2003,10 @@
         <v>2780400</v>
       </c>
       <c r="T5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -2017,13 +2014,13 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6">
         <v>1587133480804.5327</v>
@@ -2071,10 +2068,10 @@
         <v>7741220</v>
       </c>
       <c r="T6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -2082,13 +2079,13 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7">
         <v>427236226728.29803</v>
@@ -2136,10 +2133,10 @@
         <v>83879</v>
       </c>
       <c r="T7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -2147,13 +2144,13 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8">
         <v>56789627316.895378</v>
@@ -2201,10 +2198,10 @@
         <v>86600</v>
       </c>
       <c r="T8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -2212,13 +2209,13 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>12795362392.877781</v>
@@ -2266,10 +2263,10 @@
         <v>13880</v>
       </c>
       <c r="T9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -2277,10 +2274,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
@@ -2331,10 +2328,10 @@
         <v>790</v>
       </c>
       <c r="T10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -2342,13 +2339,13 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>305629528154.31073</v>
@@ -2396,10 +2393,10 @@
         <v>147570</v>
       </c>
       <c r="T11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -2407,10 +2404,10 @@
         <v>2022</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -2461,10 +2458,10 @@
         <v>30689</v>
       </c>
       <c r="T12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -2472,13 +2469,13 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>2524886205.2505965</v>
@@ -2526,10 +2523,10 @@
         <v>22970</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -2537,13 +2534,13 @@
         <v>2022</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14">
         <v>16765906414.794922</v>
@@ -2591,10 +2588,10 @@
         <v>114760</v>
       </c>
       <c r="T14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
@@ -2602,13 +2599,13 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E15">
         <v>7099253361.4119902</v>
@@ -2643,9 +2640,6 @@
       <c r="O15">
         <v>29.52</v>
       </c>
-      <c r="P15" t="s">
-        <v>33</v>
-      </c>
       <c r="Q15">
         <v>1199.0555555555557</v>
       </c>
@@ -2656,10 +2650,10 @@
         <v>4290</v>
       </c>
       <c r="T15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -2667,13 +2661,13 @@
         <v>2022</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>2615853471.1858721</v>
@@ -2721,10 +2715,10 @@
         <v>38390</v>
       </c>
       <c r="T16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -2732,13 +2726,13 @@
         <v>2022</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E17">
         <v>38319728337.571381</v>
@@ -2786,10 +2780,10 @@
         <v>1098580</v>
       </c>
       <c r="T17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -2797,13 +2791,13 @@
         <v>2022</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18">
         <v>20276983961.367558</v>
@@ -2851,10 +2845,10 @@
         <v>51210</v>
       </c>
       <c r="T18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -2862,13 +2856,13 @@
         <v>2022</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19">
         <v>17468616755.562717</v>
@@ -2916,10 +2910,10 @@
         <v>581730</v>
       </c>
       <c r="T19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -2927,13 +2921,13 @@
         <v>2022</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20">
         <v>1899505377558.02</v>
@@ -2981,10 +2975,10 @@
         <v>8510417.7709999997</v>
       </c>
       <c r="T20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -2992,13 +2986,13 @@
         <v>2022</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>13000438059.979092</v>
@@ -3046,10 +3040,10 @@
         <v>5770</v>
       </c>
       <c r="T21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
@@ -3057,13 +3051,13 @@
         <v>2022</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>62074193826.548462</v>
@@ -3111,10 +3105,10 @@
         <v>111000</v>
       </c>
       <c r="T22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
@@ -3122,13 +3116,13 @@
         <v>2022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23">
         <v>16642350339.793173</v>
@@ -3176,10 +3170,10 @@
         <v>274200</v>
       </c>
       <c r="T23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -3187,13 +3181,13 @@
         <v>2022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24">
         <v>3379450965.7308035</v>
@@ -3241,10 +3235,10 @@
         <v>27830</v>
       </c>
       <c r="T24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -3252,13 +3246,13 @@
         <v>2022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E25">
         <v>2077803747.0865779</v>
@@ -3306,10 +3300,10 @@
         <v>4030</v>
       </c>
       <c r="T25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -3317,13 +3311,13 @@
         <v>2022</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E26">
         <v>34597385966.820518</v>
@@ -3371,10 +3365,10 @@
         <v>181040</v>
       </c>
       <c r="T26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -3382,13 +3376,13 @@
         <v>2022</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>40306867605.136429</v>
@@ -3436,10 +3430,10 @@
         <v>475440</v>
       </c>
       <c r="T27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
@@ -3447,13 +3441,13 @@
         <v>2022</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E28">
         <v>1778503389905</v>
@@ -3501,10 +3495,10 @@
         <v>15634410</v>
       </c>
       <c r="T28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
@@ -3512,13 +3506,13 @@
         <v>2022</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29">
         <v>2033686256.5847738</v>
@@ -3553,9 +3547,6 @@
       <c r="O29">
         <v>14.48</v>
       </c>
-      <c r="P29" t="s">
-        <v>33</v>
-      </c>
       <c r="Q29">
         <v>8.1833108607017877</v>
       </c>
@@ -3566,10 +3557,10 @@
         <v>622980</v>
       </c>
       <c r="T29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -3577,13 +3568,13 @@
         <v>2022</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30">
         <v>17255124958.540096</v>
@@ -3631,10 +3622,10 @@
         <v>1284000</v>
       </c>
       <c r="T30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -3642,13 +3633,13 @@
         <v>2022</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E31">
         <v>279278925615.69177</v>
@@ -3696,10 +3687,10 @@
         <v>756700</v>
       </c>
       <c r="T31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
@@ -3707,13 +3698,13 @@
         <v>2022</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>16706875253648.482</v>
@@ -3761,10 +3752,10 @@
         <v>9562910</v>
       </c>
       <c r="T32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
@@ -3772,13 +3763,13 @@
         <v>2022</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33">
         <v>354752900899.01965</v>
@@ -3826,10 +3817,10 @@
         <v>1140619.05</v>
       </c>
       <c r="T33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
@@ -3837,13 +3828,13 @@
         <v>2022</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34">
         <v>67692661917.017738</v>
@@ -3891,10 +3882,10 @@
         <v>322460</v>
       </c>
       <c r="T34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
@@ -3902,13 +3893,13 @@
         <v>2022</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E35">
         <v>64066840476.846367</v>
@@ -3956,10 +3947,10 @@
         <v>88070</v>
       </c>
       <c r="T35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
@@ -3967,13 +3958,13 @@
         <v>2022</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36">
         <v>29176869929.23159</v>
@@ -4021,10 +4012,10 @@
         <v>9250</v>
       </c>
       <c r="T36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
@@ -4032,13 +4023,13 @@
         <v>2022</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E37">
         <v>220137498830.72992</v>
@@ -4086,10 +4077,10 @@
         <v>78871.47</v>
       </c>
       <c r="T37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -4097,13 +4088,13 @@
         <v>2022</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E38">
         <v>355650135426.45605</v>
@@ -4151,10 +4142,10 @@
         <v>42920</v>
       </c>
       <c r="T38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -4162,13 +4153,13 @@
         <v>2022</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E39">
         <v>97686450823.966553</v>
@@ -4216,10 +4207,10 @@
         <v>146839.46300000002</v>
       </c>
       <c r="T39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
@@ -4227,13 +4218,13 @@
         <v>2022</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>108859360917.98628</v>
@@ -4281,10 +4272,10 @@
         <v>256370</v>
       </c>
       <c r="T40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
@@ -4292,13 +4283,13 @@
         <v>2022</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>27356823619.696564</v>
@@ -4346,10 +4337,10 @@
         <v>21040</v>
       </c>
       <c r="T41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
@@ -4357,13 +4348,13 @@
         <v>2022</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42">
         <v>9963221065.409668</v>
@@ -4411,10 +4402,10 @@
         <v>28050</v>
       </c>
       <c r="T42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
@@ -4422,13 +4413,13 @@
         <v>2022</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E43">
         <v>28434428182.572762</v>
@@ -4476,10 +4467,10 @@
         <v>45340</v>
       </c>
       <c r="T43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
@@ -4487,13 +4478,13 @@
         <v>2022</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>4486130488.6176338</v>
@@ -4541,10 +4532,10 @@
         <v>17360</v>
       </c>
       <c r="T44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
@@ -4552,7 +4543,7 @@
         <v>2022</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
@@ -4606,10 +4597,10 @@
         <v>338470</v>
       </c>
       <c r="T45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
@@ -4617,13 +4608,13 @@
         <v>2022</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E46">
         <v>2646451030889.7817</v>
@@ -4671,10 +4662,10 @@
         <v>549087.37</v>
       </c>
       <c r="T46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
@@ -4682,13 +4673,13 @@
         <v>2022</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47">
         <v>15866657481.128262</v>
@@ -4736,10 +4727,10 @@
         <v>267670</v>
       </c>
       <c r="T47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
@@ -4747,13 +4738,13 @@
         <v>2022</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>1873704900.5382698</v>
@@ -4801,10 +4792,10 @@
         <v>11300</v>
       </c>
       <c r="T48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
@@ -4812,13 +4803,13 @@
         <v>2022</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E49">
         <v>21296041913.214424</v>
@@ -4866,10 +4857,10 @@
         <v>69700</v>
       </c>
       <c r="T49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
@@ -4877,13 +4868,13 @@
         <v>2022</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E50">
         <v>3702230996915.748</v>
@@ -4931,10 +4922,10 @@
         <v>357600</v>
       </c>
       <c r="T50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
@@ -4942,13 +4933,13 @@
         <v>2022</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
         <v>82</v>
       </c>
-      <c r="C51" t="s">
-        <v>83</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E51">
         <v>68526224001.221672</v>
@@ -4996,10 +4987,10 @@
         <v>238533</v>
       </c>
       <c r="T51" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
@@ -5007,13 +4998,13 @@
         <v>2022</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E52">
         <v>214952753800.89963</v>
@@ -5061,10 +5052,10 @@
         <v>131960</v>
       </c>
       <c r="T52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
@@ -5072,13 +5063,13 @@
         <v>2022</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53">
         <v>78265595990.353058</v>
@@ -5126,10 +5117,10 @@
         <v>108890</v>
       </c>
       <c r="T53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
@@ -5137,13 +5128,13 @@
         <v>2022</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E54">
         <v>13879482945.938011</v>
@@ -5191,10 +5182,10 @@
         <v>245860</v>
       </c>
       <c r="T54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
@@ -5202,13 +5193,13 @@
         <v>2022</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55">
         <v>1580686197.6198585</v>
@@ -5256,10 +5247,10 @@
         <v>36130</v>
       </c>
       <c r="T55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
@@ -5267,10 +5258,10 @@
         <v>2022</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>28</v>
@@ -5321,10 +5312,10 @@
         <v>112490</v>
       </c>
       <c r="T56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
@@ -5332,13 +5323,13 @@
         <v>2022</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E57">
         <v>317951853968.25293</v>
@@ -5376,20 +5367,14 @@
       <c r="P57">
         <v>95.6</v>
       </c>
-      <c r="Q57" t="s">
-        <v>33</v>
-      </c>
       <c r="R57">
         <v>7346100</v>
       </c>
-      <c r="S57" t="s">
-        <v>33</v>
-      </c>
       <c r="T57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
@@ -5397,13 +5382,13 @@
         <v>2022</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E58">
         <v>158545886039.55411</v>
@@ -5451,10 +5436,10 @@
         <v>93030</v>
       </c>
       <c r="T58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
@@ -5462,13 +5447,13 @@
         <v>2022</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>22081592142.812439</v>
@@ -5516,10 +5501,10 @@
         <v>103000</v>
       </c>
       <c r="T59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
@@ -5527,13 +5512,13 @@
         <v>2022</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E60">
         <v>2990839011962.4609</v>
@@ -5581,10 +5566,10 @@
         <v>3287260</v>
       </c>
       <c r="T60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
@@ -5592,13 +5577,13 @@
         <v>2022</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E61">
         <v>1122268412650.2021</v>
@@ -5646,10 +5631,10 @@
         <v>1916906.77</v>
       </c>
       <c r="T61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
@@ -5657,10 +5642,10 @@
         <v>2022</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>25</v>
@@ -5711,10 +5696,10 @@
         <v>70280</v>
       </c>
       <c r="T62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
@@ -5722,13 +5707,13 @@
         <v>2022</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E63">
         <v>406350386042.27911</v>
@@ -5766,20 +5751,14 @@
       <c r="P63">
         <v>91.9</v>
       </c>
-      <c r="Q63" t="s">
-        <v>33</v>
-      </c>
       <c r="R63">
         <v>9557500</v>
       </c>
-      <c r="S63" t="s">
-        <v>33</v>
-      </c>
       <c r="T63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
@@ -5787,13 +5766,13 @@
         <v>2022</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E64">
         <v>2000084512919.5566</v>
@@ -5841,10 +5820,10 @@
         <v>302070</v>
       </c>
       <c r="T64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
@@ -5852,13 +5831,13 @@
         <v>2022</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E65">
         <v>4534320578755.8477</v>
@@ -5906,10 +5885,10 @@
         <v>377969.27</v>
       </c>
       <c r="T65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
@@ -5917,13 +5896,13 @@
         <v>2022</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66">
         <v>44009762839.501633</v>
@@ -5971,10 +5950,10 @@
         <v>89318</v>
       </c>
       <c r="T66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
@@ -5982,13 +5961,13 @@
         <v>2022</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E67">
         <v>221549683201.09851</v>
@@ -6036,10 +6015,10 @@
         <v>2724902</v>
       </c>
       <c r="T67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
@@ -6047,13 +6026,13 @@
         <v>2022</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E68">
         <v>94807911027.625</v>
@@ -6088,9 +6067,6 @@
       <c r="O68">
         <v>11.7</v>
       </c>
-      <c r="P68" t="s">
-        <v>33</v>
-      </c>
       <c r="Q68">
         <v>95.323577678602803</v>
       </c>
@@ -6101,10 +6077,10 @@
         <v>580370</v>
       </c>
       <c r="T68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
@@ -6112,13 +6088,13 @@
         <v>2022</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E69">
         <v>1740868427277.0076</v>
@@ -6166,10 +6142,10 @@
         <v>100440</v>
       </c>
       <c r="T69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
@@ -6177,13 +6153,13 @@
         <v>2022</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70">
         <v>121991940846.71709</v>
@@ -6231,10 +6207,10 @@
         <v>17820</v>
       </c>
       <c r="T70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.35">
@@ -6242,13 +6218,13 @@
         <v>2022</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E71">
         <v>30831235007.8675</v>
@@ -6296,10 +6272,10 @@
         <v>64590</v>
       </c>
       <c r="T71" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
@@ -6307,13 +6283,13 @@
         <v>2022</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72">
         <v>2211855514.8791666</v>
@@ -6361,10 +6337,10 @@
         <v>30360</v>
       </c>
       <c r="T72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.35">
@@ -6372,13 +6348,13 @@
         <v>2022</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E73">
         <v>53474129886.970551</v>
@@ -6426,10 +6402,10 @@
         <v>65286</v>
       </c>
       <c r="T73" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
@@ -6437,13 +6413,13 @@
         <v>2022</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E74">
         <v>23110764976.518177</v>
@@ -6481,20 +6457,14 @@
       <c r="P74">
         <v>88</v>
       </c>
-      <c r="Q74" t="s">
-        <v>33</v>
-      </c>
       <c r="R74">
         <v>677300</v>
       </c>
-      <c r="S74" t="s">
-        <v>33</v>
-      </c>
       <c r="T74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
@@ -6502,10 +6472,10 @@
         <v>2022</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>2</v>
@@ -6556,10 +6526,10 @@
         <v>587295</v>
       </c>
       <c r="T75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
@@ -6567,13 +6537,13 @@
         <v>2022</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E76">
         <v>387694727478.77728</v>
@@ -6621,10 +6591,10 @@
         <v>330411</v>
       </c>
       <c r="T76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
@@ -6632,13 +6602,13 @@
         <v>2022</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E77">
         <v>5733717713.57584</v>
@@ -6686,10 +6656,10 @@
         <v>300</v>
       </c>
       <c r="T77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.35">
@@ -6697,13 +6667,13 @@
         <v>2022</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E78">
         <v>20215515808.518387</v>
@@ -6751,10 +6721,10 @@
         <v>1240190</v>
       </c>
       <c r="T78" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
@@ -6762,13 +6732,13 @@
         <v>2022</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E79">
         <v>16984786096.093273</v>
@@ -6816,10 +6786,10 @@
         <v>320</v>
       </c>
       <c r="T79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
@@ -6827,13 +6797,13 @@
         <v>2022</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E80">
         <v>7687691068.956831</v>
@@ -6881,10 +6851,10 @@
         <v>1030700</v>
       </c>
       <c r="T80" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
@@ -6892,13 +6862,13 @@
         <v>2022</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E81">
         <v>13322509534.08515</v>
@@ -6946,10 +6916,10 @@
         <v>2010</v>
       </c>
       <c r="T81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
@@ -6957,13 +6927,13 @@
         <v>2022</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E82">
         <v>1287850323410.0095</v>
@@ -7011,10 +6981,10 @@
         <v>1964375</v>
       </c>
       <c r="T82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
@@ -7022,13 +6992,13 @@
         <v>2022</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83">
         <v>9133384074.9720345</v>
@@ -7076,10 +7046,10 @@
         <v>33850</v>
       </c>
       <c r="T83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
@@ -7087,13 +7057,13 @@
         <v>2022</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E84">
         <v>14441951078.837976</v>
@@ -7141,10 +7111,10 @@
         <v>1564115.75</v>
       </c>
       <c r="T84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
@@ -7152,13 +7122,13 @@
         <v>2022</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E85">
         <v>4869340027.2423382</v>
@@ -7206,10 +7176,10 @@
         <v>13810</v>
       </c>
       <c r="T85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
@@ -7217,13 +7187,13 @@
         <v>2022</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E86">
         <v>11285723330.952015</v>
@@ -7271,10 +7241,10 @@
         <v>824290</v>
       </c>
       <c r="T86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.35">
@@ -7282,13 +7252,13 @@
         <v>2022</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E87">
         <v>33089761144.510345</v>
@@ -7336,10 +7306,10 @@
         <v>147180</v>
       </c>
       <c r="T87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.35">
@@ -7347,13 +7317,13 @@
         <v>2022</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E88">
         <v>916513359459.67114</v>
@@ -7401,10 +7371,10 @@
         <v>41540</v>
       </c>
       <c r="T88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.35">
@@ -7412,13 +7382,13 @@
         <v>2022</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E89">
         <v>218336637842.86349</v>
@@ -7466,10 +7436,10 @@
         <v>267710</v>
       </c>
       <c r="T89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.35">
@@ -7477,13 +7447,13 @@
         <v>2022</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E90">
         <v>14644146345.718866</v>
@@ -7531,10 +7501,10 @@
         <v>130370</v>
       </c>
       <c r="T90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.35">
@@ -7542,13 +7512,13 @@
         <v>2022</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E91">
         <v>14346774735.502621</v>
@@ -7596,10 +7566,10 @@
         <v>1267000</v>
       </c>
       <c r="T91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.35">
@@ -7607,13 +7577,13 @@
         <v>2022</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E92">
         <v>11449348867.205442</v>
@@ -7661,10 +7631,10 @@
         <v>25710</v>
       </c>
       <c r="T92" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.35">
@@ -7672,13 +7642,13 @@
         <v>2022</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E93">
         <v>434497344228.60675</v>
@@ -7726,10 +7696,10 @@
         <v>624500</v>
       </c>
       <c r="T93" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
@@ -7737,13 +7707,13 @@
         <v>2022</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E94">
         <v>88892516940.198502</v>
@@ -7791,10 +7761,10 @@
         <v>309500</v>
       </c>
       <c r="T94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
@@ -7802,13 +7772,13 @@
         <v>2022</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E95">
         <v>400224894618.85724</v>
@@ -7856,10 +7826,10 @@
         <v>796100</v>
       </c>
       <c r="T95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
@@ -7867,13 +7837,13 @@
         <v>2022</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E96">
         <v>70048985344.861084</v>
@@ -7921,10 +7891,10 @@
         <v>75320</v>
       </c>
       <c r="T96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.35">
@@ -7932,10 +7902,10 @@
         <v>2022</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>30</v>
@@ -7986,10 +7956,10 @@
         <v>406752</v>
       </c>
       <c r="T97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.35">
@@ -7997,13 +7967,13 @@
         <v>2022</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E98">
         <v>223198050485.25089</v>
@@ -8051,10 +8021,10 @@
         <v>1285220</v>
       </c>
       <c r="T98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.35">
@@ -8062,13 +8032,13 @@
         <v>2022</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E99">
         <v>407730367707.39337</v>
@@ -8116,10 +8086,10 @@
         <v>300000</v>
       </c>
       <c r="T99" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.35">
@@ -8127,7 +8097,7 @@
         <v>2022</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
@@ -8181,10 +8151,10 @@
         <v>312720</v>
       </c>
       <c r="T100" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.35">
@@ -8192,13 +8162,13 @@
         <v>2022</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E101">
         <v>230002605108.70703</v>
@@ -8246,10 +8216,10 @@
         <v>92230</v>
       </c>
       <c r="T101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.35">
@@ -8257,10 +8227,10 @@
         <v>2022</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>6</v>
@@ -8311,10 +8281,10 @@
         <v>11490</v>
       </c>
       <c r="T102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.35">
@@ -8322,13 +8292,13 @@
         <v>2022</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103">
         <v>230770154206.92834</v>
@@ -8376,10 +8346,10 @@
         <v>238400</v>
       </c>
       <c r="T103" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.35">
@@ -8387,13 +8357,13 @@
         <v>2022</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E104">
         <v>12946823701.930687</v>
@@ -8441,10 +8411,10 @@
         <v>26340</v>
       </c>
       <c r="T104" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U104" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.35">
@@ -8452,13 +8422,13 @@
         <v>2022</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E105">
         <v>859301066620.78772</v>
@@ -8506,10 +8476,10 @@
         <v>2149690</v>
       </c>
       <c r="T105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.35">
@@ -8517,13 +8487,13 @@
         <v>2022</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E106">
         <v>25297546478.504177</v>
@@ -8571,10 +8541,10 @@
         <v>196710</v>
       </c>
       <c r="T106" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.35">
@@ -8582,13 +8552,13 @@
         <v>2022</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E107">
         <v>1902424765.1768961</v>
@@ -8636,10 +8606,10 @@
         <v>460</v>
       </c>
       <c r="T107" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.35">
@@ -8647,13 +8617,13 @@
         <v>2022</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E108">
         <v>8914856495.1050797</v>
@@ -8701,10 +8671,10 @@
         <v>72300</v>
       </c>
       <c r="T108" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.35">
@@ -8712,13 +8682,13 @@
         <v>2022</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E109">
         <v>384550906479.00623</v>
@@ -8766,10 +8736,10 @@
         <v>728</v>
       </c>
       <c r="T109" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.35">
@@ -8777,13 +8747,13 @@
         <v>2022</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E110">
         <v>102944982587.62164</v>
@@ -8831,10 +8801,10 @@
         <v>49030</v>
       </c>
       <c r="T110" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.35">
@@ -8842,13 +8812,13 @@
         <v>2022</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E111">
         <v>53386809690.27179</v>
@@ -8896,10 +8866,10 @@
         <v>20480</v>
       </c>
       <c r="T111" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.35">
@@ -8907,13 +8877,13 @@
         <v>2022</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112">
         <v>1509636294.9660254</v>
@@ -8961,10 +8931,10 @@
         <v>28900</v>
       </c>
       <c r="T112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.35">
@@ -8972,13 +8942,13 @@
         <v>2022</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E113">
         <v>360788046853.64099</v>
@@ -9026,10 +8996,10 @@
         <v>1219090</v>
       </c>
       <c r="T113" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.35">
@@ -9037,13 +9007,13 @@
         <v>2022</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E114">
         <v>1345296618859.6665</v>
@@ -9091,10 +9061,10 @@
         <v>505978.28100000002</v>
       </c>
       <c r="T114" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.35">
@@ -9102,13 +9072,13 @@
         <v>2022</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C115" t="s">
         <v>31</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E115">
         <v>575505409859.55579</v>
@@ -9156,10 +9126,10 @@
         <v>528860</v>
       </c>
       <c r="T115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.35">
@@ -9167,13 +9137,13 @@
         <v>2022</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E116">
         <v>795248228754.84045</v>
@@ -9221,10 +9191,10 @@
         <v>41290.699999999997</v>
       </c>
       <c r="T116" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.35">
@@ -9232,13 +9202,13 @@
         <v>2022</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E117">
         <v>67159014151.451004</v>
@@ -9286,10 +9256,10 @@
         <v>947300</v>
       </c>
       <c r="T117" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.35">
@@ -9297,13 +9267,13 @@
         <v>2022</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E118">
         <v>450410744554.85718</v>
@@ -9351,10 +9321,10 @@
         <v>513120</v>
       </c>
       <c r="T118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.35">
@@ -9362,13 +9332,13 @@
         <v>2022</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E119">
         <v>7842296104.315074</v>
@@ -9416,10 +9386,10 @@
         <v>56790</v>
       </c>
       <c r="T119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.35">
@@ -9427,13 +9397,13 @@
         <v>2022</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E120">
         <v>482629585.75729042</v>
@@ -9481,10 +9451,10 @@
         <v>750</v>
       </c>
       <c r="T120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.35">
@@ -9492,13 +9462,13 @@
         <v>2022</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E121">
         <v>1194401442556.9524</v>
@@ -9546,10 +9516,10 @@
         <v>785350</v>
       </c>
       <c r="T121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.35">
@@ -9557,13 +9527,13 @@
         <v>2022</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E122">
         <v>44147216889.623978</v>
@@ -9611,10 +9581,10 @@
         <v>241550</v>
       </c>
       <c r="T122" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U122" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.35">
@@ -9622,13 +9592,13 @@
         <v>2022</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E123">
         <v>72309415409.673843</v>
@@ -9676,10 +9646,10 @@
         <v>603550</v>
       </c>
       <c r="T123" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.35">
@@ -9687,13 +9657,13 @@
         <v>2022</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C124" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E124">
         <v>3223545410805.6211</v>
@@ -9741,10 +9711,10 @@
         <v>243610</v>
       </c>
       <c r="T124" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.35">
@@ -9752,13 +9722,13 @@
         <v>2022</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E125">
         <v>21443388432051.027</v>
@@ -9806,10 +9776,10 @@
         <v>9831510</v>
       </c>
       <c r="T125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.35">
@@ -9817,13 +9787,13 @@
         <v>2022</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C126" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E126">
         <v>61810768801.320923</v>
@@ -9871,10 +9841,10 @@
         <v>176220</v>
       </c>
       <c r="T126" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.35">
@@ -9882,13 +9852,13 @@
         <v>2022</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E127">
         <v>857832270.18191183</v>
@@ -9936,10 +9906,10 @@
         <v>12190</v>
       </c>
       <c r="T127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.35">
@@ -9947,13 +9917,13 @@
         <v>2022</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E128">
         <v>360611028837.66394</v>
@@ -10001,10 +9971,10 @@
         <v>331340</v>
       </c>
       <c r="T128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.35">
@@ -10012,13 +9982,13 @@
         <v>2022</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E129">
         <v>26175604214.189548</v>
@@ -10066,10 +10036,10 @@
         <v>752610</v>
       </c>
       <c r="T129" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.35">
@@ -10086,14 +10056,14 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -10105,7 +10075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -10117,707 +10087,707 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J2">
         <v>2015</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J4">
         <v>2015</v>
       </c>
       <c r="K4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J6">
         <v>2021</v>
       </c>
       <c r="K6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" t="s">
         <v>352</v>
       </c>
-      <c r="L8" t="s">
-        <v>353</v>
-      </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K9" t="s">
+        <v>351</v>
+      </c>
+      <c r="L9" t="s">
         <v>352</v>
       </c>
-      <c r="L9" t="s">
-        <v>353</v>
-      </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K10" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" t="s">
         <v>352</v>
       </c>
-      <c r="L10" t="s">
-        <v>353</v>
-      </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
         <v>357</v>
       </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>358</v>
-      </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
         <v>180</v>
       </c>
-      <c r="B14" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>181</v>
-      </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O15" t="s">
         <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
